--- a/General/Def2a - variable selection.xlsx
+++ b/General/Def2a - variable selection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F5361079\GitHub\IFRS9-SICR-Definitions-Logit\General\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkLife\Analytix\Research\Dynamic-SICR\IFRS9-SICR-Definitions-Logit\General\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54F8C6E-2B95-4536-AFD9-B4AB2FEFA038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6DE8B2-F946-4170-BD94-4A2D1EA56BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D6FC385-DBE1-4183-BFCB-3D03C3BB241A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="3" xr2:uid="{9D6FC385-DBE1-4183-BFCB-3D03C3BB241A}"/>
   </bookViews>
   <sheets>
     <sheet name="Account-level" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>Definition</t>
   </si>
@@ -104,12 +104,6 @@
     <t>X marks whether or not an input was statistically significant at 5% level after interactive selection process</t>
   </si>
   <si>
-    <t>Green-shade cells marks final inclusion as input in 'standardisation' the input space</t>
-  </si>
-  <si>
-    <t>slc_pmnt_method*</t>
-  </si>
-  <si>
     <t>slc_acct_pre_lim_perc_imputed</t>
   </si>
   <si>
@@ -162,6 +156,12 @@
   </si>
   <si>
     <t>Real income</t>
+  </si>
+  <si>
+    <t>Green-shade cells marks final inclusion as input in 'standardisation' of the input space</t>
+  </si>
+  <si>
+    <t>slc_pmnt_method</t>
   </si>
 </sst>
 </file>
@@ -235,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,9 +262,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -286,9 +283,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -326,7 +323,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -432,7 +429,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -574,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -584,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648C4B52-8DF5-48CF-A70D-5BE671186E70}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +609,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -750,7 +747,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +760,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,13 +784,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -824,9 +821,7 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
@@ -855,7 +850,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,28 +877,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -992,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E828A42-20B8-48E0-BBA0-70973DBDCE8F}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,27 +999,27 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12">
         <v>12</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1057,20 +1052,20 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>16</v>
@@ -1087,7 +1082,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
@@ -1112,7 +1107,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="8"/>
@@ -1124,13 +1119,13 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1138,7 +1133,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
